--- a/docs/shr-core-SubjectOfRecord-extension.xlsx
+++ b/docs/shr-core-SubjectOfRecord-extension.xlsx
@@ -192,7 +192,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ResearchSubject], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ResearchSubject]]}
 </t>
   </si>
   <si>
